--- a/academias/Humanidades - Estadisticos 20211.xlsx
+++ b/academias/Humanidades - Estadisticos 20211.xlsx
@@ -625,22 +625,25 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>8.9</v>
       </c>
       <c r="J4">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -657,22 +660,25 @@
         <v>39</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>74.36</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>25.64</v>
+      </c>
+      <c r="I5">
+        <v>9.300000000000001</v>
       </c>
       <c r="J5">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -899,22 +905,25 @@
         <v>31</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>64.52</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>35.48</v>
+      </c>
+      <c r="I12">
+        <v>8.5</v>
       </c>
       <c r="J12">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>35.48</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -931,22 +940,25 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>52.38</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>47.62</v>
+      </c>
+      <c r="I13">
+        <v>9.300000000000001</v>
       </c>
       <c r="J13">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -963,22 +975,25 @@
         <v>35</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F14">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>25.71</v>
+      </c>
+      <c r="I14">
+        <v>8.5</v>
       </c>
       <c r="J14">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -995,22 +1010,25 @@
         <v>32</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>37.5</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1027,22 +1045,25 @@
         <v>34</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>79.41</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>20.59</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1059,22 +1080,25 @@
         <v>34</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F17">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>61.76</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>38.24</v>
+      </c>
+      <c r="I17">
+        <v>7.9</v>
       </c>
       <c r="J17">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>38.24</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1091,22 +1115,25 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>45.16</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>54.84</v>
+      </c>
+      <c r="I18">
+        <v>7.5</v>
       </c>
       <c r="J18">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1123,22 +1150,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>69.44</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>30.56</v>
+      </c>
+      <c r="I19">
+        <v>8.699999999999999</v>
       </c>
       <c r="J19">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1155,22 +1185,25 @@
         <v>43</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F20">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>51.16</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>48.84</v>
+      </c>
+      <c r="I20">
+        <v>7.4</v>
       </c>
       <c r="J20">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>48.84</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1187,22 +1220,25 @@
         <v>44</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F21">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>45.45</v>
+      </c>
+      <c r="I21">
+        <v>7.4</v>
       </c>
       <c r="J21">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1219,22 +1255,25 @@
         <v>24</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F22">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>58.33</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>41.67</v>
+      </c>
+      <c r="I22">
+        <v>7.7</v>
       </c>
       <c r="J22">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>100</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1251,22 +1290,25 @@
         <v>35</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>28.57</v>
+      </c>
+      <c r="I23">
+        <v>8.5</v>
       </c>
       <c r="J23">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>100</v>
+        <v>28.57</v>
       </c>
     </row>
   </sheetData>
@@ -2161,22 +2203,25 @@
         <v>35</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="H4">
-        <v>100</v>
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>8.9</v>
       </c>
       <c r="J4">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="K4">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2193,22 +2238,25 @@
         <v>39</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>74.36</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>25.64</v>
+      </c>
+      <c r="I5">
+        <v>9.300000000000001</v>
       </c>
       <c r="J5">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>25.64</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2435,22 +2483,25 @@
         <v>31</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>64.52</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>35.48</v>
+      </c>
+      <c r="I12">
+        <v>8.5</v>
       </c>
       <c r="J12">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>100</v>
+        <v>35.48</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -2467,22 +2518,25 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>52.38</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>47.62</v>
+      </c>
+      <c r="I13">
+        <v>9.300000000000001</v>
       </c>
       <c r="J13">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>47.62</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -2499,22 +2553,25 @@
         <v>35</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F14">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>25.71</v>
+      </c>
+      <c r="I14">
+        <v>8.5</v>
       </c>
       <c r="J14">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="K14">
-        <v>100</v>
+        <v>25.71</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -2531,22 +2588,25 @@
         <v>32</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>37.5</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
       </c>
       <c r="J15">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="K15">
-        <v>100</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -2563,22 +2623,25 @@
         <v>34</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>79.41</v>
       </c>
       <c r="H16">
-        <v>100</v>
+        <v>20.59</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
       </c>
       <c r="J16">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="K16">
-        <v>100</v>
+        <v>20.59</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2595,22 +2658,25 @@
         <v>34</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="F17">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>61.76</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>38.24</v>
+      </c>
+      <c r="I17">
+        <v>7.9</v>
       </c>
       <c r="J17">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="K17">
-        <v>100</v>
+        <v>38.24</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2627,22 +2693,25 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F18">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>45.16</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>54.84</v>
+      </c>
+      <c r="I18">
+        <v>7.5</v>
       </c>
       <c r="J18">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="K18">
-        <v>100</v>
+        <v>54.84</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2659,22 +2728,25 @@
         <v>36</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>69.44</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>30.56</v>
+      </c>
+      <c r="I19">
+        <v>8.699999999999999</v>
       </c>
       <c r="J19">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>30.56</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -2691,22 +2763,25 @@
         <v>43</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F20">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>51.16</v>
       </c>
       <c r="H20">
-        <v>100</v>
+        <v>48.84</v>
+      </c>
+      <c r="I20">
+        <v>7.4</v>
       </c>
       <c r="J20">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="K20">
-        <v>100</v>
+        <v>48.84</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2723,22 +2798,25 @@
         <v>44</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F21">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>54.55</v>
       </c>
       <c r="H21">
-        <v>100</v>
+        <v>45.45</v>
+      </c>
+      <c r="I21">
+        <v>7.4</v>
       </c>
       <c r="J21">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="K21">
-        <v>100</v>
+        <v>45.45</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2755,22 +2833,25 @@
         <v>24</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F22">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>58.33</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>41.67</v>
+      </c>
+      <c r="I22">
+        <v>7.7</v>
       </c>
       <c r="J22">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="K22">
-        <v>100</v>
+        <v>41.67</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2787,22 +2868,25 @@
         <v>35</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>28.57</v>
+      </c>
+      <c r="I23">
+        <v>8.5</v>
       </c>
       <c r="J23">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="K23">
-        <v>100</v>
+        <v>28.57</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Humanidades - Estadisticos 20211.xlsx
+++ b/academias/Humanidades - Estadisticos 20211.xlsx
@@ -622,28 +622,28 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>38.89</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>61.11</v>
       </c>
       <c r="I4">
         <v>8.9</v>
       </c>
       <c r="J4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>60</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -692,28 +692,28 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>34.78</v>
+        <v>33.33</v>
       </c>
       <c r="H6">
-        <v>65.22</v>
+        <v>66.67</v>
       </c>
       <c r="I6">
         <v>8.9</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>65.22</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -727,28 +727,28 @@
         <v>40</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>64.09999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="H7">
-        <v>35.9</v>
+        <v>37.5</v>
       </c>
       <c r="I7">
         <v>6.6</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>35.9</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -867,28 +867,28 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>13</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>72.22</v>
+        <v>61.9</v>
       </c>
       <c r="H11">
-        <v>27.78</v>
+        <v>38.1</v>
       </c>
       <c r="I11">
         <v>7.1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>27.78</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1042,28 +1042,28 @@
         <v>39</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>27</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>79.41</v>
+        <v>77.14</v>
       </c>
       <c r="H16">
-        <v>20.59</v>
+        <v>22.86</v>
       </c>
       <c r="I16">
         <v>10</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16">
-        <v>20.59</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1115,25 +1115,25 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <v>45.16</v>
+        <v>48.39</v>
       </c>
       <c r="H18">
-        <v>54.84</v>
+        <v>51.61</v>
       </c>
       <c r="I18">
         <v>7.5</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18">
-        <v>54.84</v>
+        <v>51.61</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1185,25 +1185,25 @@
         <v>43</v>
       </c>
       <c r="E20">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <v>51.16</v>
+        <v>58.14</v>
       </c>
       <c r="H20">
-        <v>48.84</v>
+        <v>41.86</v>
       </c>
       <c r="I20">
         <v>7.4</v>
       </c>
       <c r="J20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K20">
-        <v>48.84</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1217,28 +1217,28 @@
         <v>40</v>
       </c>
       <c r="D21">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G21">
-        <v>54.55</v>
+        <v>60.47</v>
       </c>
       <c r="H21">
-        <v>45.45</v>
+        <v>39.53</v>
       </c>
       <c r="I21">
         <v>7.4</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K21">
-        <v>45.45</v>
+        <v>39.53</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1255,25 +1255,25 @@
         <v>24</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>58.33</v>
+        <v>75</v>
       </c>
       <c r="H22">
-        <v>41.67</v>
+        <v>25</v>
       </c>
       <c r="I22">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K22">
-        <v>41.67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1287,19 +1287,19 @@
         <v>39</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23">
         <v>10</v>
       </c>
       <c r="G23">
-        <v>71.43000000000001</v>
+        <v>72.22</v>
       </c>
       <c r="H23">
-        <v>28.57</v>
+        <v>27.78</v>
       </c>
       <c r="I23">
         <v>8.5</v>
@@ -1308,7 +1308,7 @@
         <v>10</v>
       </c>
       <c r="K23">
-        <v>28.57</v>
+        <v>27.78</v>
       </c>
     </row>
   </sheetData>
@@ -1438,13 +1438,13 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1453,7 +1453,7 @@
         <v>100</v>
       </c>
       <c r="J4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K4">
         <v>100</v>
@@ -1502,13 +1502,13 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>100</v>
       </c>
       <c r="J6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6">
         <v>100</v>
@@ -1534,13 +1534,13 @@
         <v>40</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1549,7 +1549,7 @@
         <v>100</v>
       </c>
       <c r="J7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7">
         <v>100</v>
@@ -1662,13 +1662,13 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>100</v>
       </c>
       <c r="J11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K11">
         <v>100</v>
@@ -1822,13 +1822,13 @@
         <v>39</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1837,7 +1837,7 @@
         <v>100</v>
       </c>
       <c r="J16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K16">
         <v>100</v>
@@ -1982,13 +1982,13 @@
         <v>40</v>
       </c>
       <c r="D21">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1997,7 +1997,7 @@
         <v>100</v>
       </c>
       <c r="J21">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>100</v>
@@ -2046,13 +2046,13 @@
         <v>39</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>100</v>
       </c>
       <c r="J23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23">
         <v>100</v>
@@ -2200,28 +2200,28 @@
         <v>39</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>14</v>
       </c>
       <c r="F4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4">
-        <v>40</v>
+        <v>38.89</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>61.11</v>
       </c>
       <c r="I4">
         <v>8.9</v>
       </c>
       <c r="J4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>60</v>
+        <v>61.11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -2270,28 +2270,28 @@
         <v>39</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>8</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6">
-        <v>34.78</v>
+        <v>33.33</v>
       </c>
       <c r="H6">
-        <v>65.22</v>
+        <v>66.67</v>
       </c>
       <c r="I6">
         <v>8.9</v>
       </c>
       <c r="J6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K6">
-        <v>65.22</v>
+        <v>66.67</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -2305,28 +2305,28 @@
         <v>40</v>
       </c>
       <c r="D7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>25</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7">
-        <v>64.09999999999999</v>
+        <v>62.5</v>
       </c>
       <c r="H7">
-        <v>35.9</v>
+        <v>37.5</v>
       </c>
       <c r="I7">
         <v>6.6</v>
       </c>
       <c r="J7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7">
-        <v>35.9</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -2445,28 +2445,28 @@
         <v>40</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>13</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G11">
-        <v>72.22</v>
+        <v>61.9</v>
       </c>
       <c r="H11">
-        <v>27.78</v>
+        <v>38.1</v>
       </c>
       <c r="I11">
         <v>7.1</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>27.78</v>
+        <v>38.1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -2620,28 +2620,28 @@
         <v>39</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16">
         <v>27</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16">
-        <v>79.41</v>
+        <v>77.14</v>
       </c>
       <c r="H16">
-        <v>20.59</v>
+        <v>22.86</v>
       </c>
       <c r="I16">
         <v>10</v>
       </c>
       <c r="J16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K16">
-        <v>20.59</v>
+        <v>22.86</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -2693,25 +2693,25 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18">
-        <v>45.16</v>
+        <v>48.39</v>
       </c>
       <c r="H18">
-        <v>54.84</v>
+        <v>51.61</v>
       </c>
       <c r="I18">
         <v>7.5</v>
       </c>
       <c r="J18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K18">
-        <v>54.84</v>
+        <v>51.61</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2763,25 +2763,25 @@
         <v>43</v>
       </c>
       <c r="E20">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G20">
-        <v>51.16</v>
+        <v>58.14</v>
       </c>
       <c r="H20">
-        <v>48.84</v>
+        <v>41.86</v>
       </c>
       <c r="I20">
         <v>7.4</v>
       </c>
       <c r="J20">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K20">
-        <v>48.84</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2795,28 +2795,28 @@
         <v>40</v>
       </c>
       <c r="D21">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E21">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G21">
-        <v>54.55</v>
+        <v>60.47</v>
       </c>
       <c r="H21">
-        <v>45.45</v>
+        <v>39.53</v>
       </c>
       <c r="I21">
         <v>7.4</v>
       </c>
       <c r="J21">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K21">
-        <v>45.45</v>
+        <v>39.53</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2833,25 +2833,25 @@
         <v>24</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G22">
-        <v>58.33</v>
+        <v>75</v>
       </c>
       <c r="H22">
-        <v>41.67</v>
+        <v>25</v>
       </c>
       <c r="I22">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="J22">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K22">
-        <v>41.67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2865,19 +2865,19 @@
         <v>39</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23">
         <v>10</v>
       </c>
       <c r="G23">
-        <v>71.43000000000001</v>
+        <v>72.22</v>
       </c>
       <c r="H23">
-        <v>28.57</v>
+        <v>27.78</v>
       </c>
       <c r="I23">
         <v>8.5</v>
@@ -2886,7 +2886,7 @@
         <v>10</v>
       </c>
       <c r="K23">
-        <v>28.57</v>
+        <v>27.78</v>
       </c>
     </row>
   </sheetData>

--- a/academias/Humanidades - Estadisticos 20211.xlsx
+++ b/academias/Humanidades - Estadisticos 20211.xlsx
@@ -1080,25 +1080,25 @@
         <v>34</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>61.76</v>
+        <v>70.59</v>
       </c>
       <c r="H17">
-        <v>38.24</v>
+        <v>29.41</v>
       </c>
       <c r="I17">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="J17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>38.24</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1115,25 +1115,25 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18">
-        <v>48.39</v>
+        <v>54.84</v>
       </c>
       <c r="H18">
-        <v>51.61</v>
+        <v>45.16</v>
       </c>
       <c r="I18">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="J18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K18">
-        <v>51.61</v>
+        <v>45.16</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1185,25 +1185,25 @@
         <v>43</v>
       </c>
       <c r="E20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20">
-        <v>58.14</v>
+        <v>60.47</v>
       </c>
       <c r="H20">
-        <v>41.86</v>
+        <v>39.53</v>
       </c>
       <c r="I20">
         <v>7.4</v>
       </c>
       <c r="J20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20">
-        <v>41.86</v>
+        <v>39.53</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1220,25 +1220,25 @@
         <v>43</v>
       </c>
       <c r="E21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>60.47</v>
+        <v>62.79</v>
       </c>
       <c r="H21">
-        <v>39.53</v>
+        <v>37.21</v>
       </c>
       <c r="I21">
         <v>7.4</v>
       </c>
       <c r="J21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21">
-        <v>39.53</v>
+        <v>37.21</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1255,25 +1255,25 @@
         <v>24</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>75</v>
+        <v>79.17</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>20.83</v>
       </c>
       <c r="I22">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>25</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -2658,25 +2658,25 @@
         <v>34</v>
       </c>
       <c r="E17">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G17">
-        <v>61.76</v>
+        <v>70.59</v>
       </c>
       <c r="H17">
-        <v>38.24</v>
+        <v>29.41</v>
       </c>
       <c r="I17">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="J17">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K17">
-        <v>38.24</v>
+        <v>29.41</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -2693,25 +2693,25 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G18">
-        <v>48.39</v>
+        <v>54.84</v>
       </c>
       <c r="H18">
-        <v>51.61</v>
+        <v>45.16</v>
       </c>
       <c r="I18">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="J18">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K18">
-        <v>51.61</v>
+        <v>45.16</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2763,25 +2763,25 @@
         <v>43</v>
       </c>
       <c r="E20">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20">
-        <v>58.14</v>
+        <v>60.47</v>
       </c>
       <c r="H20">
-        <v>41.86</v>
+        <v>39.53</v>
       </c>
       <c r="I20">
         <v>7.4</v>
       </c>
       <c r="J20">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20">
-        <v>41.86</v>
+        <v>39.53</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -2798,25 +2798,25 @@
         <v>43</v>
       </c>
       <c r="E21">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21">
-        <v>60.47</v>
+        <v>62.79</v>
       </c>
       <c r="H21">
-        <v>39.53</v>
+        <v>37.21</v>
       </c>
       <c r="I21">
         <v>7.4</v>
       </c>
       <c r="J21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K21">
-        <v>39.53</v>
+        <v>37.21</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -2833,25 +2833,25 @@
         <v>24</v>
       </c>
       <c r="E22">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>75</v>
+        <v>79.17</v>
       </c>
       <c r="H22">
-        <v>25</v>
+        <v>20.83</v>
       </c>
       <c r="I22">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="J22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K22">
-        <v>25</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="23" spans="1:11">

--- a/academias/Humanidades - Estadisticos 20211.xlsx
+++ b/academias/Humanidades - Estadisticos 20211.xlsx
@@ -555,25 +555,25 @@
         <v>33</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>39.39</v>
+        <v>42.42</v>
       </c>
       <c r="H2">
-        <v>60.61</v>
+        <v>57.58</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>60.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -590,25 +590,25 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>57.14</v>
+        <v>61.9</v>
       </c>
       <c r="H3">
-        <v>42.86</v>
+        <v>38.1</v>
       </c>
       <c r="I3">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>42.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1115,25 +1115,25 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18">
-        <v>54.84</v>
+        <v>58.06</v>
       </c>
       <c r="H18">
-        <v>45.16</v>
+        <v>41.94</v>
       </c>
       <c r="I18">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="J18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18">
-        <v>45.16</v>
+        <v>41.94</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1290,25 +1290,25 @@
         <v>36</v>
       </c>
       <c r="E23">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>72.22</v>
+        <v>86.11</v>
       </c>
       <c r="H23">
-        <v>27.78</v>
+        <v>13.89</v>
       </c>
       <c r="I23">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>27.78</v>
+        <v>13.89</v>
       </c>
     </row>
   </sheetData>
@@ -2133,25 +2133,25 @@
         <v>33</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2">
-        <v>39.39</v>
+        <v>42.42</v>
       </c>
       <c r="H2">
-        <v>60.61</v>
+        <v>57.58</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>6.2</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>60.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -2168,25 +2168,25 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>57.14</v>
+        <v>61.9</v>
       </c>
       <c r="H3">
-        <v>42.86</v>
+        <v>38.1</v>
       </c>
       <c r="I3">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="J3">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>42.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -2693,25 +2693,25 @@
         <v>31</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18">
-        <v>54.84</v>
+        <v>58.06</v>
       </c>
       <c r="H18">
-        <v>45.16</v>
+        <v>41.94</v>
       </c>
       <c r="I18">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="J18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K18">
-        <v>45.16</v>
+        <v>41.94</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -2868,25 +2868,25 @@
         <v>36</v>
       </c>
       <c r="E23">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G23">
-        <v>72.22</v>
+        <v>86.11</v>
       </c>
       <c r="H23">
-        <v>27.78</v>
+        <v>13.89</v>
       </c>
       <c r="I23">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J23">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K23">
-        <v>27.78</v>
+        <v>13.89</v>
       </c>
     </row>
   </sheetData>
